--- a/Datasets/JRG_COVID_hoje.xlsx
+++ b/Datasets/JRG_COVID_hoje.xlsx
@@ -2774,6 +2774,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>207</v>
+      </c>
+      <c r="B85" t="n">
+        <v>132</v>
+      </c>
+      <c r="C85" t="n">
+        <v>70</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3</v>
+      </c>
+      <c r="F85" t="n">
+        <v>84</v>
+      </c>
+      <c r="G85" t="n">
+        <v>72</v>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JRG_COVID_hoje.xlsx
+++ b/Datasets/JRG_COVID_hoje.xlsx
@@ -2803,6 +2803,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>221</v>
+      </c>
+      <c r="B86" t="n">
+        <v>138</v>
+      </c>
+      <c r="C86" t="n">
+        <v>76</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>85</v>
+      </c>
+      <c r="G86" t="n">
+        <v>80</v>
+      </c>
+      <c r="H86" t="n">
+        <v>14</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JRG_COVID_hoje.xlsx
+++ b/Datasets/JRG_COVID_hoje.xlsx
@@ -2832,6 +2832,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>221</v>
+      </c>
+      <c r="B87" t="n">
+        <v>138</v>
+      </c>
+      <c r="C87" t="n">
+        <v>76</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3</v>
+      </c>
+      <c r="F87" t="n">
+        <v>86</v>
+      </c>
+      <c r="G87" t="n">
+        <v>80</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JRG_COVID_hoje.xlsx
+++ b/Datasets/JRG_COVID_hoje.xlsx
@@ -2861,6 +2861,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>229</v>
+      </c>
+      <c r="B88" t="n">
+        <v>138</v>
+      </c>
+      <c r="C88" t="n">
+        <v>84</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3</v>
+      </c>
+      <c r="F88" t="n">
+        <v>87</v>
+      </c>
+      <c r="G88" t="n">
+        <v>88</v>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JRG_COVID_hoje.xlsx
+++ b/Datasets/JRG_COVID_hoje.xlsx
@@ -2834,13 +2834,13 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B87" t="n">
         <v>138</v>
       </c>
       <c r="C87" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D87" t="n">
         <v>4</v>
@@ -2849,13 +2849,13 @@
         <v>3</v>
       </c>
       <c r="F87" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G87" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -2878,13 +2878,13 @@
         <v>3</v>
       </c>
       <c r="F88" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G88" t="n">
         <v>88</v>
       </c>
       <c r="H88" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -2892,13 +2892,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B89" t="n">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C89" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D89" t="n">
         <v>4</v>
@@ -2907,13 +2907,13 @@
         <v>3</v>
       </c>
       <c r="F89" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G89" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -2921,28 +2921,28 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B90" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C90" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E90" t="n">
         <v>3</v>
       </c>
       <c r="F90" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G90" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H90" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -2950,10 +2950,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B91" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C91" t="n">
         <v>79</v>
@@ -2971,7 +2971,7 @@
         <v>82</v>
       </c>
       <c r="H91" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>

--- a/Datasets/JRG_COVID_hoje.xlsx
+++ b/Datasets/JRG_COVID_hoje.xlsx
@@ -2977,6 +2977,64 @@
         <v>0</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>259</v>
+      </c>
+      <c r="B92" t="n">
+        <v>171</v>
+      </c>
+      <c r="C92" t="n">
+        <v>80</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4</v>
+      </c>
+      <c r="F92" t="n">
+        <v>91</v>
+      </c>
+      <c r="G92" t="n">
+        <v>84</v>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>272</v>
+      </c>
+      <c r="B93" t="n">
+        <v>172</v>
+      </c>
+      <c r="C93" t="n">
+        <v>92</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4</v>
+      </c>
+      <c r="F93" t="n">
+        <v>92</v>
+      </c>
+      <c r="G93" t="n">
+        <v>96</v>
+      </c>
+      <c r="H93" t="n">
+        <v>13</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JRG_COVID_hoje.xlsx
+++ b/Datasets/JRG_COVID_hoje.xlsx
@@ -3035,6 +3035,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>272</v>
+      </c>
+      <c r="B94" t="n">
+        <v>172</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>93</v>
+      </c>
+      <c r="G94" t="n">
+        <v>96</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JRG_COVID_hoje.xlsx
+++ b/Datasets/JRG_COVID_hoje.xlsx
@@ -3209,6 +3209,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>340</v>
+      </c>
+      <c r="B100" t="n">
+        <v>210</v>
+      </c>
+      <c r="C100" t="n">
+        <v>123</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>99</v>
+      </c>
+      <c r="G100" t="n">
+        <v>126</v>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JRG_COVID_hoje.xlsx
+++ b/Datasets/JRG_COVID_hoje.xlsx
@@ -3296,6 +3296,64 @@
         <v>0</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>402</v>
+      </c>
+      <c r="B103" t="n">
+        <v>253</v>
+      </c>
+      <c r="C103" t="n">
+        <v>141</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>102</v>
+      </c>
+      <c r="G103" t="n">
+        <v>145</v>
+      </c>
+      <c r="H103" t="n">
+        <v>62</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>402</v>
+      </c>
+      <c r="B104" t="n">
+        <v>253</v>
+      </c>
+      <c r="C104" t="n">
+        <v>141</v>
+      </c>
+      <c r="D104" t="n">
+        <v>4</v>
+      </c>
+      <c r="E104" t="n">
+        <v>4</v>
+      </c>
+      <c r="F104" t="n">
+        <v>103</v>
+      </c>
+      <c r="G104" t="n">
+        <v>145</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JRG_COVID_hoje.xlsx
+++ b/Datasets/JRG_COVID_hoje.xlsx
@@ -3356,59 +3356,88 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="B105" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C105" t="n">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="D105" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F105" t="n">
         <v>104</v>
       </c>
       <c r="G105" t="n">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="B106" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C106" t="n">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="D106" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F106" t="n">
         <v>105</v>
       </c>
       <c r="G106" t="n">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>454</v>
+      </c>
+      <c r="B107" t="n">
+        <v>258</v>
+      </c>
+      <c r="C107" t="n">
+        <v>185</v>
+      </c>
+      <c r="D107" t="n">
+        <v>6</v>
+      </c>
+      <c r="E107" t="n">
+        <v>5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>106</v>
+      </c>
+      <c r="G107" t="n">
+        <v>191</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Datasets/JRG_COVID_hoje.xlsx
+++ b/Datasets/JRG_COVID_hoje.xlsx
@@ -3441,6 +3441,64 @@
         <v>0</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>454</v>
+      </c>
+      <c r="B108" t="n">
+        <v>258</v>
+      </c>
+      <c r="C108" t="n">
+        <v>185</v>
+      </c>
+      <c r="D108" t="n">
+        <v>6</v>
+      </c>
+      <c r="E108" t="n">
+        <v>5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>107</v>
+      </c>
+      <c r="G108" t="n">
+        <v>191</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>454</v>
+      </c>
+      <c r="B109" t="n">
+        <v>258</v>
+      </c>
+      <c r="C109" t="n">
+        <v>185</v>
+      </c>
+      <c r="D109" t="n">
+        <v>6</v>
+      </c>
+      <c r="E109" t="n">
+        <v>5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>108</v>
+      </c>
+      <c r="G109" t="n">
+        <v>191</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JRG_COVID_hoje.xlsx
+++ b/Datasets/JRG_COVID_hoje.xlsx
@@ -3545,6 +3545,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>611</v>
+      </c>
+      <c r="B112" t="n">
+        <v>329</v>
+      </c>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112" t="n">
+        <v>6</v>
+      </c>
+      <c r="F112" t="n">
+        <v>111</v>
+      </c>
+      <c r="G112" t="n">
+        <v>276</v>
+      </c>
+      <c r="H112" t="n">
+        <v>72</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JRG_COVID_hoje.xlsx
+++ b/Datasets/JRG_COVID_hoje.xlsx
@@ -3570,6 +3570,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>649</v>
+      </c>
+      <c r="B113" t="n">
+        <v>329</v>
+      </c>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113" t="n">
+        <v>6</v>
+      </c>
+      <c r="F113" t="n">
+        <v>112</v>
+      </c>
+      <c r="G113" t="n">
+        <v>314</v>
+      </c>
+      <c r="H113" t="n">
+        <v>38</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JRG_COVID_hoje.xlsx
+++ b/Datasets/JRG_COVID_hoje.xlsx
@@ -3595,6 +3595,106 @@
         <v>0</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>649</v>
+      </c>
+      <c r="B114" t="n">
+        <v>329</v>
+      </c>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114" t="n">
+        <v>6</v>
+      </c>
+      <c r="F114" t="n">
+        <v>113</v>
+      </c>
+      <c r="G114" t="n">
+        <v>314</v>
+      </c>
+      <c r="H114" t="n">
+        <v>38</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>649</v>
+      </c>
+      <c r="B115" t="n">
+        <v>329</v>
+      </c>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115" t="n">
+        <v>6</v>
+      </c>
+      <c r="F115" t="n">
+        <v>114</v>
+      </c>
+      <c r="G115" t="n">
+        <v>314</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>649</v>
+      </c>
+      <c r="B116" t="n">
+        <v>329</v>
+      </c>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116" t="n">
+        <v>6</v>
+      </c>
+      <c r="F116" t="n">
+        <v>114</v>
+      </c>
+      <c r="G116" t="n">
+        <v>314</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>649</v>
+      </c>
+      <c r="B117" t="n">
+        <v>329</v>
+      </c>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117" t="n">
+        <v>6</v>
+      </c>
+      <c r="F117" t="n">
+        <v>116</v>
+      </c>
+      <c r="G117" t="n">
+        <v>314</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JRG_COVID_hoje.xlsx
+++ b/Datasets/JRG_COVID_hoje.xlsx
@@ -3695,6 +3695,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>649</v>
+      </c>
+      <c r="B118" t="n">
+        <v>329</v>
+      </c>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118" t="n">
+        <v>6</v>
+      </c>
+      <c r="F118" t="n">
+        <v>117</v>
+      </c>
+      <c r="G118" t="n">
+        <v>314</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JRG_COVID_hoje.xlsx
+++ b/Datasets/JRG_COVID_hoje.xlsx
@@ -3720,6 +3720,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>907</v>
+      </c>
+      <c r="B119" t="n">
+        <v>447</v>
+      </c>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119" t="n">
+        <v>10</v>
+      </c>
+      <c r="F119" t="n">
+        <v>118</v>
+      </c>
+      <c r="G119" t="n">
+        <v>450</v>
+      </c>
+      <c r="H119" t="n">
+        <v>258</v>
+      </c>
+      <c r="I119" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JRG_COVID_hoje.xlsx
+++ b/Datasets/JRG_COVID_hoje.xlsx
@@ -3745,6 +3745,31 @@
         <v>4</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>907</v>
+      </c>
+      <c r="B120" t="n">
+        <v>447</v>
+      </c>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120" t="n">
+        <v>10</v>
+      </c>
+      <c r="F120" t="n">
+        <v>119</v>
+      </c>
+      <c r="G120" t="n">
+        <v>450</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JRG_COVID_hoje.xlsx
+++ b/Datasets/JRG_COVID_hoje.xlsx
@@ -3745,31 +3745,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>907</v>
-      </c>
-      <c r="B120" t="n">
-        <v>447</v>
-      </c>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120" t="n">
-        <v>10</v>
-      </c>
-      <c r="F120" t="n">
-        <v>119</v>
-      </c>
-      <c r="G120" t="n">
-        <v>450</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
